--- a/Paper_resultados/Parametric_model/LoS/Output/Model_selection/CCI/estimate_CCI.xlsx
+++ b/Paper_resultados/Parametric_model/LoS/Output/Model_selection/CCI/estimate_CCI.xlsx
@@ -371,26 +371,26 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3.221733536200366</v>
+        <v>0.7100763878539773</v>
       </c>
       <c r="B2">
-        <v>0.1509458110979643</v>
+        <v>0.2658082083622391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.219697865573934</v>
+        <v>1.972807756299182</v>
       </c>
       <c r="B3">
-        <v>0.1159318535494265</v>
+        <v>4.40361642020188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-2.653565316835922</v>
+        <v>8.899003521837123</v>
       </c>
       <c r="B4">
-        <v>1.761784973917307</v>
+        <v>6.64844666991466</v>
       </c>
     </row>
   </sheetData>
